--- a/projectStatus.xlsx
+++ b/projectStatus.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayushi\Desktop\main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C304593-1B9A-496E-9A21-1EC2E1F45CE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Functionalities" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Changes&amp;Recommendations" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="FrontEnd-taskFlow" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Tables" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="BackEnd-Service&amp;Controllers" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Flow" sheetId="6" r:id="rId9"/>
+    <sheet name="Functionalities" sheetId="1" r:id="rId1"/>
+    <sheet name="Changes&amp;Recommendations" sheetId="2" r:id="rId2"/>
+    <sheet name="FrontEnd-taskFlow" sheetId="3" r:id="rId3"/>
+    <sheet name="Tables" sheetId="4" r:id="rId4"/>
+    <sheet name="BackEnd-Service&amp;Controllers" sheetId="5" r:id="rId5"/>
+    <sheet name="Flow" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="291">
   <si>
     <t>Ecommerce Application  Functionalities</t>
   </si>
@@ -41,22 +50,25 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">view, add and </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <color rgb="FFFF0000"/>
       </rPr>
       <t>remove</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> products from shopping cart</t>
     </r>
@@ -261,9 +273,6 @@
     <t xml:space="preserve">3)product image implementation </t>
   </si>
   <si>
-    <t xml:space="preserve">working on this </t>
-  </si>
-  <si>
     <t xml:space="preserve">4) page rerendering where we have used window reload : in remove products from admin and update order status </t>
   </si>
   <si>
@@ -701,27 +710,28 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="12.0"/>
       </rPr>
       <t>BackEnd Developers</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="14.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t>: Shravya and Ekta   SpringBoot used for microservices</t>
     </r>
@@ -750,15 +760,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://localhost:9595/customer/login/email/password</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (values by jsonbody)</t>
     </r>
@@ -772,15 +786,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://localhost:9595/customer/register</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (values by json)</t>
     </r>
@@ -791,13 +809,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://localhost:9595/customer/update</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> (values by json)</t>
     </r>
   </si>
@@ -810,14 +834,18 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://localhost:9595/customers/forgot/</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>{email} (value by url)</t>
     </r>
@@ -840,13 +868,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://localhost:9595/customer/remove/customerid</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> (values by url)</t>
     </r>
   </si>
@@ -859,13 +893,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://localhost:9999/orders/save</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> (values by json)</t>
     </r>
   </si>
@@ -875,16 +915,18 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <u/>
       </rPr>
       <t>https://localhost:9999/orders/s</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">how </t>
     </r>
@@ -895,16 +937,18 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
       </rPr>
       <t>https://localhost:9999/orders/showorder/</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>{orderid} (value by url)</t>
     </r>
@@ -912,22 +956,25 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>Update order (</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <color rgb="FFFF0000"/>
       </rPr>
       <t>only status</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -935,23 +982,26 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
       </rPr>
       <t>https://localhost:9999/orders/save</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve"> (order id by url, body by json) </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <color rgb="FFFF0000"/>
       </rPr>
       <t>admin control</t>
     </r>
@@ -962,18 +1012,26 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://localhost:9999/orders/remove/{orderid} (values</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> by url)   </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>admin control</t>
     </r>
@@ -1008,13 +1066,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>http://localhost:5555/products/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>{id}</t>
     </r>
   </si>
@@ -1033,13 +1097,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>http://localhost:5555/products/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>{id}</t>
     </r>
   </si>
@@ -1049,13 +1119,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://localhost:5555/products/save/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>{category}  (value by json)</t>
     </r>
   </si>
@@ -1126,129 +1202,144 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF505050"/>
       <name val="Inter"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1294,12 +1385,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
@@ -1340,298 +1425,211 @@
         <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="99">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1821,53 +1819,81 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="72.71"/>
-    <col customWidth="1" min="6" max="6" width="61.86"/>
+    <col min="3" max="3" width="72.7265625" customWidth="1"/>
+    <col min="6" max="6" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="72" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-    </row>
-    <row r="3">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-    </row>
-    <row r="4">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -1876,14 +1902,14 @@
       <c r="E7" s="8"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="E8" s="8"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9">
       <c r="A9" s="9"/>
       <c r="B9" s="11" t="s">
         <v>3</v>
@@ -1895,7 +1921,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="14" t="s">
@@ -1905,7 +1931,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
         <v>6</v>
@@ -1914,7 +1940,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
         <v>7</v>
@@ -1923,7 +1949,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
         <v>8</v>
@@ -1932,7 +1958,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="B14" s="13"/>
       <c r="C14" s="16" t="s">
         <v>9</v>
@@ -1940,7 +1966,7 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
         <v>10</v>
@@ -1948,7 +1974,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="B16" s="13"/>
       <c r="C16" s="16" t="s">
         <v>11</v>
@@ -1956,7 +1982,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="B17" s="13"/>
       <c r="C17" s="16" t="s">
         <v>12</v>
@@ -1964,7 +1990,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="B18" s="13"/>
       <c r="C18" s="16" t="s">
         <v>13</v>
@@ -1972,7 +1998,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
         <v>14</v>
@@ -1980,7 +2006,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6">
       <c r="B20" s="13"/>
       <c r="C20" s="16" t="s">
         <v>15</v>
@@ -1989,18 +2015,18 @@
       <c r="E20" s="17"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="B21" s="13"/>
       <c r="C21" s="16"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="18">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="14">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
         <v>16</v>
@@ -2011,7 +2037,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="14">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="14" t="s">
@@ -2020,7 +2046,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="12.5">
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
         <v>18</v>
@@ -2028,7 +2054,7 @@
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="12.5">
       <c r="B26" s="13"/>
       <c r="C26" s="20" t="s">
         <v>19</v>
@@ -2036,7 +2062,7 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="12.5">
       <c r="B27" s="13"/>
       <c r="C27" s="21" t="s">
         <v>20</v>
@@ -2044,7 +2070,7 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="12.5">
       <c r="B28" s="13"/>
       <c r="C28" s="16" t="s">
         <v>21</v>
@@ -2052,7 +2078,7 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="12.5">
       <c r="B29" s="13"/>
       <c r="C29" s="22" t="s">
         <v>22</v>
@@ -2060,24 +2086,24 @@
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="12.5">
       <c r="B30" s="13"/>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="97" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="12.5">
       <c r="B31" s="13"/>
       <c r="C31" s="22"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="13">
       <c r="C32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="14">
       <c r="A33" s="3"/>
       <c r="B33" s="11" t="s">
         <v>24</v>
@@ -2088,7 +2114,7 @@
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="14">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
       <c r="C34" s="14" t="s">
@@ -2097,7 +2123,7 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="12.5">
       <c r="B35" s="13"/>
       <c r="C35" s="14" t="s">
         <v>26</v>
@@ -2105,7 +2131,7 @@
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="12.5">
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="s">
         <v>27</v>
@@ -2113,7 +2139,7 @@
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="12.5">
       <c r="B37" s="13"/>
       <c r="C37" s="16" t="s">
         <v>28</v>
@@ -2121,18 +2147,18 @@
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="12.5">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="15.5">
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="13">
       <c r="B42" s="17" t="s">
         <v>30</v>
       </c>
@@ -2142,7 +2168,7 @@
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="12.5">
       <c r="B43" s="13"/>
       <c r="C43" s="14" t="s">
         <v>32</v>
@@ -2150,7 +2176,7 @@
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="12.5">
       <c r="A44" s="3"/>
       <c r="B44" s="13"/>
       <c r="C44" s="16" t="s">
@@ -2159,7 +2185,7 @@
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="12.5">
       <c r="B45" s="13"/>
       <c r="C45" s="16" t="s">
         <v>34</v>
@@ -2167,7 +2193,7 @@
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="12.5">
       <c r="B46" s="13"/>
       <c r="C46" s="14" t="s">
         <v>35</v>
@@ -2175,7 +2201,7 @@
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="12.5">
       <c r="B47" s="13"/>
       <c r="C47" s="23" t="s">
         <v>36</v>
@@ -2183,18 +2209,18 @@
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="12.5">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" ht="15.5">
       <c r="A50" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" ht="13">
       <c r="B51" s="17" t="s">
         <v>37</v>
       </c>
@@ -2205,7 +2231,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" ht="13">
       <c r="B52" s="17" t="s">
         <v>39</v>
       </c>
@@ -2216,7 +2242,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="12.5">
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="s">
         <v>41</v>
@@ -2225,7 +2251,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="12.5">
       <c r="B54" s="13"/>
       <c r="C54" s="14" t="s">
         <v>42</v>
@@ -2234,7 +2260,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="12.5">
       <c r="B55" s="13"/>
       <c r="C55" s="14" t="s">
         <v>43</v>
@@ -2243,19 +2269,19 @@
       <c r="E55" s="13"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="12.5">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="15.5">
       <c r="A58" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="13">
       <c r="B59" s="17" t="s">
         <v>45</v>
       </c>
@@ -2264,7 +2290,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="8"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="12.5">
       <c r="B60" s="13"/>
       <c r="C60" s="16" t="s">
         <v>46</v>
@@ -2273,7 +2299,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" ht="12.5">
       <c r="B61" s="13"/>
       <c r="C61" s="16" t="s">
         <v>47</v>
@@ -2282,7 +2308,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" ht="12.5">
       <c r="B62" s="13"/>
       <c r="C62" s="16" t="s">
         <v>48</v>
@@ -2291,7 +2317,7 @@
       <c r="E62" s="13"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" ht="12.5">
       <c r="B63" s="13"/>
       <c r="C63" s="16" t="s">
         <v>49</v>
@@ -2300,7 +2326,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" ht="12.5">
       <c r="B64" s="13"/>
       <c r="C64" s="24" t="s">
         <v>50</v>
@@ -2309,7 +2335,7 @@
       <c r="E64" s="13"/>
       <c r="F64" s="8"/>
     </row>
-    <row r="65">
+    <row r="65" spans="2:6" ht="12.5">
       <c r="B65" s="13"/>
       <c r="C65" s="16" t="s">
         <v>51</v>
@@ -2318,7 +2344,7 @@
       <c r="E65" s="13"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66">
+    <row r="66" spans="2:6" ht="12.5">
       <c r="B66" s="13"/>
       <c r="C66" s="16" t="s">
         <v>52</v>
@@ -2331,29 +2357,71 @@
   <mergeCells count="1">
     <mergeCell ref="B1:I3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:G25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="7" max="7" width="22.43"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:12" ht="12.5">
+      <c r="A1" s="74" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.5">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2362,83 +2430,159 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:12" ht="15.5">
+      <c r="A5" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:12" ht="12.5">
+      <c r="A6" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="28" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="12.5">
+      <c r="A7" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:12" ht="12.5">
+      <c r="A8" s="76" t="s">
         <v>59</v>
       </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:12" ht="12.5">
+      <c r="A9" s="76" t="s">
         <v>60</v>
       </c>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:12" ht="12.5">
+      <c r="A10" s="76" t="s">
         <v>61</v>
       </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:12" ht="12.5">
+      <c r="A11" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="12.5">
+      <c r="A12" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="s">
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="98"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.5">
+      <c r="A13" s="76" t="s">
         <v>64</v>
       </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:12" ht="12.5">
+      <c r="A14" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="16" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="98"/>
+    </row>
+    <row r="15" spans="1:12" ht="12.5">
+      <c r="A15" s="76" t="s">
         <v>66</v>
       </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:12" ht="12.5">
+      <c r="A16" s="76" t="s">
         <v>67</v>
       </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="12.5">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2447,118 +2591,164 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:8" ht="13">
+      <c r="A18" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:8" ht="12.5">
+      <c r="A19" s="76"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:8" ht="12.5">
+      <c r="A20" s="76" t="s">
         <v>69</v>
       </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
+    <row r="21" spans="1:8" ht="13.5" customHeight="1">
       <c r="A21" s="13"/>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="76" t="s">
         <v>70</v>
       </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" ht="12.5">
       <c r="A22" s="13"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="76" t="s">
         <v>71</v>
       </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" ht="12.5">
       <c r="A23" s="13"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="76" t="s">
         <v>72</v>
       </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:8" ht="12.5">
+      <c r="A24" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.5">
+      <c r="A25" s="76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="16" t="s">
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.5">
+      <c r="A26" s="76"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.5">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.5">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.5">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.5">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="33" spans="1:2" ht="12.5">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="12.5">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="12.5">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="12.5">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" ht="12.5">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="42" spans="1:2" ht="12.5">
+      <c r="A42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="16"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="33"/>
-    </row>
-    <row r="44">
+    </row>
+    <row r="43" spans="1:2" ht="12.5">
+      <c r="B43" s="29"/>
+    </row>
+    <row r="44" spans="1:2" ht="12.5">
       <c r="B44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:G13"/>
@@ -2566,733 +2756,789 @@
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="26.57"/>
-    <col customWidth="1" min="3" max="3" width="27.86"/>
-    <col customWidth="1" min="4" max="4" width="65.0"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A1" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A3" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2">
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="36" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="35"/>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40" t="s">
+      <c r="E5" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="D6" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="30"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="30"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="30"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="73"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="30"/>
+      <c r="B21" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.5">
+      <c r="A22" s="30"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="73"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.5">
+      <c r="A23" s="30"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="73"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.5">
+      <c r="A24" s="30"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="73"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.5">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.5">
+      <c r="A26" s="30"/>
+      <c r="B26" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="35"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="35"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="35"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="35"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="35"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="35"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="35"/>
-      <c r="B11" s="38" t="s">
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.5">
+      <c r="A27" s="30"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.5">
+      <c r="A28" s="30"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="73"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.5">
+      <c r="A29" s="30"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.5">
+      <c r="A30" s="30"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="73"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.5">
+      <c r="A31" s="30"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="73"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.5">
+      <c r="A32" s="30"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="73"/>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.5">
+      <c r="A33" s="30"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="73"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.5">
+      <c r="A34" s="30"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="73"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.5">
+      <c r="A35" s="30"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="73"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.5">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.5">
+      <c r="A37" s="30"/>
+      <c r="B37" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="35"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="35"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="35"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="35"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="35"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="35"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="35"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="35"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="35"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="35"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="35"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="35"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="35"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="35"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="35"/>
-      <c r="B21" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="35"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="35"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="35"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="35"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="35"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="35"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="35"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="35"/>
-      <c r="B26" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="46" t="s">
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.5">
+      <c r="A38" s="30"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="73"/>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.5">
+      <c r="A39" s="30"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="73"/>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.5">
+      <c r="A40" s="30"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="73"/>
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.5">
+      <c r="A41" s="30"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="73"/>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.5">
+      <c r="A42" s="30"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="73"/>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.5">
+      <c r="A43" s="30"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="73"/>
+      <c r="F43" s="30"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.5">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.5">
+      <c r="A45" s="30"/>
+      <c r="B45" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="35"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="35"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="35"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="35"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="35"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="35"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="35"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="35"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="35"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="35"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="35"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="35"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="35"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="35"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="35"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="35"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="35"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="35"/>
-      <c r="B37" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="35"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="35"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="35"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="35"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="35"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="35"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="35"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="35"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="35"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="35"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="35"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" s="35"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="35"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="35"/>
-      <c r="B45" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="47" t="s">
+      <c r="F45" s="30"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.5">
+      <c r="A46" s="30"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.5">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="30"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.5">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.5">
+      <c r="A49" s="30"/>
+      <c r="B49" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="35"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="35"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="35"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="35"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="35"/>
-      <c r="B49" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="47" t="s">
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.5">
+      <c r="A50" s="30"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.5">
+      <c r="A51" s="30"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="30"/>
+    </row>
+    <row r="52" spans="1:6" ht="18.5">
+      <c r="A52" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.5">
+      <c r="A53" s="30"/>
+      <c r="B53" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="36"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="38"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.5">
+      <c r="A54" s="30"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="73"/>
+      <c r="F54" s="38"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.5">
+      <c r="A55" s="30"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="73"/>
+      <c r="F55" s="38"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.5">
+      <c r="A56" s="30"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="73"/>
+      <c r="F56" s="38"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.5">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.5">
+      <c r="A58" s="30"/>
+      <c r="B58" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="35"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="35"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="F50" s="35"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="35"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="F51" s="35"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="35"/>
-      <c r="B53" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="42"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="F53" s="44"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="35"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="F54" s="44"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="35"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="F55" s="44"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="35"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="F56" s="44"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="35"/>
-      <c r="B58" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="D58" s="40" t="s">
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.5">
+      <c r="A59" s="30"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="35"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="35"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="52" t="s">
+      <c r="D59" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="E59" s="73"/>
+      <c r="F59" s="30"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.5">
+      <c r="A60" s="30"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="F59" s="35"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="35"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="52" t="s">
+      <c r="D60" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="54" t="s">
+      <c r="E60" s="73"/>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.5">
+      <c r="A61" s="30"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="F60" s="35"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="35"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="52" t="s">
+      <c r="D61" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="E61" s="73"/>
+      <c r="F61" s="30"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.5">
+      <c r="A62" s="30"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="F61" s="35"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="35"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="52" t="s">
+      <c r="D62" s="39"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" ht="12.5">
+      <c r="B63" s="47"/>
+      <c r="C63" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D62" s="45"/>
-      <c r="F62" s="35"/>
-    </row>
-    <row r="63">
-      <c r="B63" s="55"/>
-      <c r="C63" s="56" t="s">
+      <c r="D63" s="49"/>
+      <c r="E63" s="73"/>
+    </row>
+    <row r="69" spans="2:4" ht="13">
+      <c r="B69" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D63" s="57"/>
-    </row>
-    <row r="69">
-      <c r="B69" s="2" t="s">
+    </row>
+    <row r="70" spans="2:4" ht="12.5">
+      <c r="B70" s="14" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="14" t="s">
+      <c r="C70" s="50"/>
+      <c r="D70" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="28" t="s">
+    </row>
+    <row r="71" spans="2:4" ht="12.5">
+      <c r="B71" s="14" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="14" t="s">
+      <c r="C71" s="50"/>
+      <c r="D71" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="12.5">
+      <c r="B72" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="14" t="s">
+      <c r="C72" s="50"/>
+      <c r="D72" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="12.5">
+      <c r="B73" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="C72" s="58"/>
-      <c r="D72" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>174</v>
+      <c r="C73" s="73"/>
+      <c r="D73" s="26" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E37:E43"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
     <mergeCell ref="E53:E56"/>
     <mergeCell ref="E58:E63"/>
     <mergeCell ref="B73:C73"/>
@@ -3303,6 +3549,11 @@
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="E26:E35"/>
+    <mergeCell ref="E37:E43"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E9">
     <cfRule type="colorScale" priority="1">
@@ -3319,256 +3570,399 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="7" max="7" width="17.57"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A1" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="88" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A4" s="51" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="60" t="s">
+      <c r="B4" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="C4" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="D4" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="E4" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="F4" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="G4" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="H4" s="87"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="61" t="s">
+      <c r="B5" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="C5" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="16"/>
-    </row>
-    <row r="7">
+      <c r="G5" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="76"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="51" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="60" t="s">
+      <c r="B9" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="C9" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="60" t="s">
+      <c r="G9" s="87"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="61" t="s">
+      <c r="B10" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="C10" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="87"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="88" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="17" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="51" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="60" t="s">
+      <c r="B14" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="C14" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="D14" s="87"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="61" t="s">
+      <c r="B15" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="C15" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="76"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A19" s="51" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="60" t="s">
+      <c r="B19" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="C19" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="D19" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="E19" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="F19" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="G19" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="H19" s="87"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A20" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="61" t="s">
+      <c r="F20" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="F20" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="16" t="s">
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+    </row>
+    <row r="24" spans="1:11" ht="13">
+      <c r="A24" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:11" ht="12.5">
+      <c r="A25" s="54" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="63" t="s">
+      <c r="B25" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="64" t="s">
+    </row>
+    <row r="26" spans="1:11" ht="12.5">
+      <c r="A26" s="56" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="65" t="s">
+      <c r="B26" s="57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="12.5">
+      <c r="B28" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:11" ht="12.5">
+      <c r="B29" s="3" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="D14:K15"/>
-    <mergeCell ref="A16:K16"/>
     <mergeCell ref="A18:K18"/>
     <mergeCell ref="H19:K20"/>
     <mergeCell ref="A21:K21"/>
@@ -3579,182 +3973,205 @@
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:K10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="D14:K15"/>
+    <mergeCell ref="A16:K16"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.14"/>
-    <col customWidth="1" min="3" max="3" width="23.43"/>
-    <col customWidth="1" min="4" max="4" width="83.57"/>
+    <col min="1" max="1" width="8.08984375" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="83.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A1" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="92" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="68" t="s">
-        <v>221</v>
-      </c>
+      <c r="B3" s="73"/>
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="93"/>
+      <c r="B4" s="73"/>
       <c r="D4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="16"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="13"/>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="E7" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B8" s="13"/>
+      <c r="C8" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="D8" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="13"/>
-      <c r="C8" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="69" t="s">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B9" s="13"/>
+      <c r="C9" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="70" t="s">
+      <c r="D9" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="13"/>
-      <c r="C9" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="14" t="s">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B10" s="13"/>
+      <c r="C10" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="D10" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="13"/>
-      <c r="C10" s="72" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="74" t="s">
-        <v>238</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="D12" s="69" t="s">
-        <v>240</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="71" t="s">
-        <v>242</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
@@ -3762,410 +4179,410 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6">
       <c r="A16" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="B17" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="E17" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B18" s="13"/>
+      <c r="C18" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F17" s="70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="13"/>
-      <c r="C18" s="30" t="s">
+      <c r="D18" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="E18" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B19" s="13"/>
+      <c r="C19" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F18" s="70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="13"/>
-      <c r="C19" s="30" t="s">
+      <c r="D19" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="E19" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B20" s="13"/>
+      <c r="C20" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F19" s="70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="13"/>
-      <c r="C20" s="30" t="s">
+      <c r="D20" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="E20" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B21" s="13"/>
+      <c r="C21" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="13"/>
-      <c r="C21" s="30" t="s">
+      <c r="D21" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="71" t="s">
-        <v>253</v>
-      </c>
       <c r="E21" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F21" s="70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>228</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.5">
       <c r="B22" s="13"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="12.5">
       <c r="A23" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="12.5">
       <c r="B24" s="13"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>255</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>256</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="12.5">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="13">
       <c r="A28" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="12.5">
       <c r="B29" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="D29" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="E29" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="F29" s="59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.5">
+      <c r="B30" s="13"/>
+      <c r="C30" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="D30" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F30" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="13"/>
-      <c r="C30" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="D30" s="71" t="s">
+    <row r="31" spans="1:6" ht="12.5">
+      <c r="B31" s="13"/>
+      <c r="C31" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="F30" s="70" t="s">
+      <c r="D31" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="13"/>
-      <c r="C31" s="30" t="s">
+    <row r="32" spans="1:6" ht="12.5">
+      <c r="B32" s="13"/>
+      <c r="C32" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D32" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="70" t="s">
+      <c r="F32" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" s="13"/>
-      <c r="C32" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="30" t="s">
+    <row r="33" spans="1:6" ht="12.5">
+      <c r="B33" s="13"/>
+      <c r="C33" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="F32" s="70" t="s">
+      <c r="D33" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F33" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="13"/>
-      <c r="C33" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="D33" s="71" t="s">
+    <row r="34" spans="1:6" ht="12.5">
+      <c r="B34" s="13"/>
+      <c r="C34" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="F33" s="70" t="s">
+      <c r="D34" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="59"/>
+    </row>
+    <row r="35" spans="1:6" ht="12.5">
+      <c r="B35" s="13"/>
+      <c r="C35" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="59"/>
+    </row>
+    <row r="36" spans="1:6" ht="12.5">
+      <c r="B36" s="13"/>
+      <c r="C36" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="13"/>
-      <c r="C34" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="71" t="s">
-        <v>270</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="70"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="13"/>
-      <c r="C35" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="70"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="13"/>
-      <c r="C36" s="77" t="s">
+    <row r="37" spans="1:6" ht="12.5">
+      <c r="B37" s="8"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+    </row>
+    <row r="38" spans="1:6" ht="13">
+      <c r="A38" s="3">
+        <v>5</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79" t="s">
-        <v>261</v>
-      </c>
-      <c r="F36" s="80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="8"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>274</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="12.5">
       <c r="B39" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="D39" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="D39" s="82" t="s">
+      <c r="E39" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.5">
+      <c r="B40" s="13"/>
+      <c r="C40" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="F39" s="70" t="s">
+      <c r="D40" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F40" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="13"/>
-      <c r="C40" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="D40" s="30" t="s">
+    <row r="41" spans="1:6" ht="12.5">
+      <c r="B41" s="13"/>
+      <c r="C41" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="F40" s="70" t="s">
+      <c r="D41" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" s="13"/>
-      <c r="C41" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="F41" s="70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="12.5">
       <c r="B42" s="13"/>
       <c r="C42" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="12.5">
       <c r="B43" s="13"/>
       <c r="C43" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="12.5">
       <c r="B44" s="13"/>
-      <c r="C44" s="30" t="s">
-        <v>284</v>
+      <c r="C44" s="27" t="s">
+        <v>283</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="12.5">
       <c r="B45" s="13"/>
       <c r="C45" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="12.5">
       <c r="B46" s="13"/>
       <c r="C46" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="12.5">
       <c r="B47" s="13"/>
       <c r="C47" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" ht="12.5">
       <c r="B48" s="13"/>
-      <c r="C48" s="30" t="s">
-        <v>288</v>
+      <c r="C48" s="27" t="s">
+        <v>287</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49">
+    <row r="49" spans="2:6" ht="12.5">
       <c r="B49" s="13"/>
-      <c r="C49" s="30" t="s">
-        <v>289</v>
+      <c r="C49" s="27" t="s">
+        <v>288</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50">
+    <row r="50" spans="2:6" ht="12.5">
       <c r="B50" s="13"/>
       <c r="C50" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51">
+    <row r="51" spans="2:6" ht="12.5">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -4179,43 +4596,44 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D7"/>
-    <hyperlink r:id="rId2" ref="D8"/>
-    <hyperlink r:id="rId3" ref="D9"/>
-    <hyperlink r:id="rId4" ref="D10"/>
-    <hyperlink r:id="rId5" ref="D12"/>
-    <hyperlink r:id="rId6" ref="D13"/>
-    <hyperlink r:id="rId7" ref="D17"/>
-    <hyperlink r:id="rId8" ref="D18"/>
-    <hyperlink r:id="rId9" ref="D19"/>
-    <hyperlink r:id="rId10" ref="D20"/>
-    <hyperlink r:id="rId11" ref="D21"/>
-    <hyperlink r:id="rId12" ref="D29"/>
-    <hyperlink r:id="rId13" ref="D30"/>
-    <hyperlink r:id="rId14" ref="D31"/>
-    <hyperlink r:id="rId15" ref="D33"/>
-    <hyperlink r:id="rId16" ref="D34"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="D20" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="D21" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="D29" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="D30" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="D31" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="D33" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="D34" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:2" ht="15.75" customHeight="1">
       <c r="B2" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>